--- a/estadisticas_2026.xlsx
+++ b/estadisticas_2026.xlsx
@@ -1738,8 +1738,8 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/estadisticas_2026.xlsx
+++ b/estadisticas_2026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2026/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="557" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9C84117-FE52-4249-831F-46C07BED7A12}"/>
+  <xr:revisionPtr revIDLastSave="1116" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FA40CB2-7263-49F6-8E22-C3057CB99D6F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{13F91CB8-CF47-44CB-84C1-93A20A2C742B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="89">
   <si>
     <t>id_jugador</t>
   </si>
@@ -292,7 +292,19 @@
     <t>RICARDO</t>
   </si>
   <si>
-    <t>fraccion_partido</t>
+    <t>partido_completado</t>
+  </si>
+  <si>
+    <t>cancha</t>
+  </si>
+  <si>
+    <t>El Triunfo</t>
+  </si>
+  <si>
+    <t>El Seminario</t>
+  </si>
+  <si>
+    <t>GIOVANNI SOMBRA</t>
   </si>
 </sst>
 </file>
@@ -699,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBA3823-1E62-4455-A91D-2EBCB6A24091}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1017,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>38</v>
@@ -1039,7 +1051,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>40</v>
@@ -1646,6 +1658,23 @@
         <v>1</v>
       </c>
       <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>81</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
         <v>0</v>
       </c>
     </row>
@@ -1657,18 +1686,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0488AB1C-4576-440C-8D7D-A31AA9C1676C}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1687,8 +1717,11 @@
       <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1707,8 +1740,11 @@
       <c r="F2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1726,6 +1762,55 @@
       </c>
       <c r="F3">
         <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>46039</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>46046</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1735,11 +1820,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDE6726-3602-4466-9A97-644319A2108B}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N89" sqref="N89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,7 +1842,7 @@
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2772,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" ref="H23:H47" si="1">F23+G23</f>
+        <f t="shared" ref="H23:H48" si="1">F23+G23</f>
         <v>0</v>
       </c>
       <c r="I23" s="6">
@@ -3870,6 +3955,2436 @@
         <v>0</v>
       </c>
       <c r="N47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>21</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f>F49+G49</f>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ref="H50:H77" si="2">F50+G50</f>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>22</v>
+      </c>
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>88</v>
+      </c>
+      <c r="C53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>71</v>
+      </c>
+      <c r="C54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>73</v>
+      </c>
+      <c r="C59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>17</v>
+      </c>
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>51</v>
+      </c>
+      <c r="C62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62">
+        <v>7</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>95</v>
+      </c>
+      <c r="C64" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>26</v>
+      </c>
+      <c r="C65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>24</v>
+      </c>
+      <c r="C68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>18</v>
+      </c>
+      <c r="C70" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>3</v>
+      </c>
+      <c r="B74" s="6">
+        <v>13</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" s="6">
+        <v>0</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
+      <c r="F74" s="6">
+        <v>0</v>
+      </c>
+      <c r="G74" s="6">
+        <v>1</v>
+      </c>
+      <c r="H74" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I74" s="6">
+        <v>0</v>
+      </c>
+      <c r="J74" s="6">
+        <v>0</v>
+      </c>
+      <c r="K74" s="6">
+        <v>0</v>
+      </c>
+      <c r="L74" s="6">
+        <v>0</v>
+      </c>
+      <c r="M74" s="6">
+        <v>0</v>
+      </c>
+      <c r="N74" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>81</v>
+      </c>
+      <c r="C75" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>4</v>
+      </c>
+      <c r="B76">
+        <v>88</v>
+      </c>
+      <c r="C76" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>95</v>
+      </c>
+      <c r="C77" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>4</v>
+      </c>
+      <c r="B78">
+        <v>27</v>
+      </c>
+      <c r="C78" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f t="shared" ref="H78:H101" si="3">F78+G78</f>
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>4</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>4</v>
+      </c>
+      <c r="B80">
+        <v>21</v>
+      </c>
+      <c r="C80" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81">
+        <v>33</v>
+      </c>
+      <c r="C81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>4</v>
+      </c>
+      <c r="B82">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>77</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="B83">
+        <v>71</v>
+      </c>
+      <c r="C83" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>4</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="B85">
+        <v>26</v>
+      </c>
+      <c r="C85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>77</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>4</v>
+      </c>
+      <c r="B87">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>77</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>4</v>
+      </c>
+      <c r="B88">
+        <v>51</v>
+      </c>
+      <c r="C88" t="s">
+        <v>77</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="B89">
+        <v>73</v>
+      </c>
+      <c r="C89" t="s">
+        <v>77</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>4</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>82</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>4</v>
+      </c>
+      <c r="B91">
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
+        <v>82</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>82</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="B93">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
+        <v>82</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>4</v>
+      </c>
+      <c r="B94">
+        <v>22</v>
+      </c>
+      <c r="C94" t="s">
+        <v>82</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>4</v>
+      </c>
+      <c r="B95">
+        <v>24</v>
+      </c>
+      <c r="C95" t="s">
+        <v>82</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>4</v>
+      </c>
+      <c r="B96">
+        <v>80</v>
+      </c>
+      <c r="C96" t="s">
+        <v>82</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97">
+        <v>52</v>
+      </c>
+      <c r="C97" t="s">
+        <v>82</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>4</v>
+      </c>
+      <c r="B98">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>82</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99">
+        <v>17</v>
+      </c>
+      <c r="C99" t="s">
+        <v>82</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>4</v>
+      </c>
+      <c r="B100">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>82</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>2</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s">
+        <v>82</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
         <v>1</v>
       </c>
     </row>
